--- a/ModifiedHost.xlsx
+++ b/ModifiedHost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevesu/GIS School/GISCapstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8E1B05B-9CFD-3841-8768-DF20462FE7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339368D2-A6BE-CB4E-9ABD-FFD540035C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{8D1FAEC0-E645-DB4D-B161-CB20930AC7CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="72">
   <si>
     <t xml:space="preserve">Organization Name </t>
   </si>
@@ -96,13 +96,169 @@
   </si>
   <si>
     <t>T2G 5E6</t>
+  </si>
+  <si>
+    <t>BrightPath Kids</t>
+  </si>
+  <si>
+    <t>Daycare/OOSC</t>
+  </si>
+  <si>
+    <t>BrightPath Creekside</t>
+  </si>
+  <si>
+    <t>12630 Symons Valley Road NW</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>T3P 0A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BrightPath Sage Hill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">71 Sage Hill Passage NW </t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>T3R 0S4</t>
+  </si>
+  <si>
+    <t>BrightPath Deer Ridge</t>
+  </si>
+  <si>
+    <t>116 Deerview Drive SE</t>
+  </si>
+  <si>
+    <t>T2J 6G9</t>
+  </si>
+  <si>
+    <t>BrightPath Falconridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 Falshire Drive NE </t>
+  </si>
+  <si>
+    <t>T3J 3A4</t>
+  </si>
+  <si>
+    <t>BrightPath Highland Park</t>
+  </si>
+  <si>
+    <t>4311 1A Street NW</t>
+  </si>
+  <si>
+    <t>T3A 4C3</t>
+  </si>
+  <si>
+    <t>BrightPath Legacy</t>
+  </si>
+  <si>
+    <t>250 Hartell Way SE </t>
+  </si>
+  <si>
+    <t>T2X 4S9 </t>
+  </si>
+  <si>
+    <t>BrightPath Marlborough</t>
+  </si>
+  <si>
+    <t>4603 Marbank Dr NE</t>
+  </si>
+  <si>
+    <t>T2A 3V8</t>
+  </si>
+  <si>
+    <t>BrightPath McKenzie</t>
+  </si>
+  <si>
+    <t>97 McKenzie Towne Blvd SE</t>
+  </si>
+  <si>
+    <t>T2Z 3S7</t>
+  </si>
+  <si>
+    <t>BrightPath Millrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Millside Drive SW </t>
+  </si>
+  <si>
+    <t>T2Y 2M7</t>
+  </si>
+  <si>
+    <t>BrightPath Ranchlands</t>
+  </si>
+  <si>
+    <t>Unit 240, 1829 Ranchlands Blvd NW</t>
+  </si>
+  <si>
+    <t>T3G 2A7</t>
+  </si>
+  <si>
+    <t>BrightPath Richmond</t>
+  </si>
+  <si>
+    <t>5275 Richmond Rd SW</t>
+  </si>
+  <si>
+    <t>T3E 7C4</t>
+  </si>
+  <si>
+    <t>BrightPath Rundle</t>
+  </si>
+  <si>
+    <t>3803 Rundlehorn Drive NE</t>
+  </si>
+  <si>
+    <t>T1Y 2K1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BrightPath Southwood </t>
+  </si>
+  <si>
+    <t>10807 Elbow Dr SW</t>
+  </si>
+  <si>
+    <t>T2W 1G5</t>
+  </si>
+  <si>
+    <t>BrightPath Southwood East</t>
+  </si>
+  <si>
+    <t>10620 Sacramento Dr SW</t>
+  </si>
+  <si>
+    <t>T2W 1S5</t>
+  </si>
+  <si>
+    <t>BrightPath Whitehorn</t>
+  </si>
+  <si>
+    <t>3704 Whitehorn Dr. NE</t>
+  </si>
+  <si>
+    <t>T1Y 5C4</t>
+  </si>
+  <si>
+    <t>BrightPath Woodlands</t>
+  </si>
+  <si>
+    <t>5 Woodstock Rd SW</t>
+  </si>
+  <si>
+    <t>T2W 5V8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,8 +274,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +304,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -213,6 +388,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,15 +737,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE5E45F-5454-F94D-8427-B8F0BB783683}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:EE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:135" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:135" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -608,7 +798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:135" ht="187" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -631,6 +821,1194 @@
       <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="4" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8"/>
+      <c r="BX5" s="8"/>
+      <c r="BY5" s="8"/>
+      <c r="BZ5" s="8"/>
+      <c r="CA5" s="8"/>
+      <c r="CB5" s="8"/>
+      <c r="CC5" s="8"/>
+      <c r="CD5" s="8"/>
+      <c r="CE5" s="8"/>
+      <c r="CF5" s="8"/>
+      <c r="CG5" s="8"/>
+      <c r="CH5" s="8"/>
+      <c r="CI5" s="8"/>
+      <c r="CJ5" s="8"/>
+      <c r="CK5" s="8"/>
+      <c r="CL5" s="8"/>
+      <c r="CM5" s="8"/>
+      <c r="CN5" s="8"/>
+      <c r="CO5" s="8"/>
+      <c r="CP5" s="8"/>
+      <c r="CQ5" s="8"/>
+      <c r="CR5" s="8"/>
+      <c r="CS5" s="8"/>
+      <c r="CT5" s="8"/>
+      <c r="CU5" s="8"/>
+      <c r="CV5" s="8"/>
+      <c r="CW5" s="8"/>
+      <c r="CX5" s="8"/>
+      <c r="CY5" s="8"/>
+      <c r="CZ5" s="8"/>
+      <c r="DA5" s="8"/>
+      <c r="DB5" s="8"/>
+      <c r="DC5" s="8"/>
+      <c r="DD5" s="8"/>
+      <c r="DE5" s="8"/>
+      <c r="DF5" s="8"/>
+      <c r="DG5" s="8"/>
+      <c r="DH5" s="8"/>
+      <c r="DI5" s="8"/>
+      <c r="DJ5" s="8"/>
+      <c r="DK5" s="8"/>
+      <c r="DL5" s="8"/>
+      <c r="DM5" s="8"/>
+      <c r="DN5" s="8"/>
+      <c r="DO5" s="8"/>
+      <c r="DP5" s="8"/>
+      <c r="DQ5" s="8"/>
+      <c r="DR5" s="8"/>
+      <c r="DS5" s="8"/>
+      <c r="DT5" s="8"/>
+      <c r="DU5" s="8"/>
+      <c r="DV5" s="8"/>
+      <c r="DW5" s="8"/>
+      <c r="DX5" s="8"/>
+      <c r="DY5" s="8"/>
+      <c r="DZ5" s="8"/>
+      <c r="EA5" s="8"/>
+      <c r="EB5" s="8"/>
+      <c r="EC5" s="8"/>
+      <c r="ED5" s="8"/>
+      <c r="EE5" s="8"/>
+    </row>
+    <row r="6" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:135" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="11"/>
+      <c r="BF15" s="11"/>
+      <c r="BG15" s="11"/>
+      <c r="BH15" s="11"/>
+      <c r="BI15" s="11"/>
+      <c r="BJ15" s="11"/>
+      <c r="BK15" s="11"/>
+      <c r="BL15" s="11"/>
+      <c r="BM15" s="11"/>
+      <c r="BN15" s="11"/>
+      <c r="BO15" s="11"/>
+      <c r="BP15" s="11"/>
+      <c r="BQ15" s="11"/>
+      <c r="BR15" s="11"/>
+      <c r="BS15" s="11"/>
+      <c r="BT15" s="11"/>
+      <c r="BU15" s="11"/>
+      <c r="BV15" s="11"/>
+      <c r="BW15" s="11"/>
+      <c r="BX15" s="11"/>
+      <c r="BY15" s="11"/>
+      <c r="BZ15" s="11"/>
+      <c r="CA15" s="11"/>
+      <c r="CB15" s="11"/>
+      <c r="CC15" s="11"/>
+      <c r="CD15" s="11"/>
+      <c r="CE15" s="11"/>
+      <c r="CF15" s="11"/>
+      <c r="CG15" s="11"/>
+      <c r="CH15" s="11"/>
+      <c r="CI15" s="11"/>
+      <c r="CJ15" s="11"/>
+      <c r="CK15" s="11"/>
+      <c r="CL15" s="11"/>
+      <c r="CM15" s="11"/>
+      <c r="CN15" s="11"/>
+      <c r="CO15" s="11"/>
+      <c r="CP15" s="11"/>
+      <c r="CQ15" s="11"/>
+      <c r="CR15" s="11"/>
+      <c r="CS15" s="11"/>
+      <c r="CT15" s="11"/>
+      <c r="CU15" s="11"/>
+      <c r="CV15" s="11"/>
+      <c r="CW15" s="11"/>
+      <c r="CX15" s="11"/>
+      <c r="CY15" s="11"/>
+      <c r="CZ15" s="11"/>
+      <c r="DA15" s="11"/>
+      <c r="DB15" s="11"/>
+      <c r="DC15" s="11"/>
+      <c r="DD15" s="11"/>
+      <c r="DE15" s="11"/>
+      <c r="DF15" s="11"/>
+      <c r="DG15" s="11"/>
+      <c r="DH15" s="11"/>
+      <c r="DI15" s="11"/>
+      <c r="DJ15" s="11"/>
+      <c r="DK15" s="11"/>
+      <c r="DL15" s="11"/>
+      <c r="DM15" s="11"/>
+      <c r="DN15" s="11"/>
+      <c r="DO15" s="11"/>
+      <c r="DP15" s="11"/>
+      <c r="DQ15" s="11"/>
+      <c r="DR15" s="11"/>
+      <c r="DS15" s="11"/>
+      <c r="DT15" s="11"/>
+      <c r="DU15" s="11"/>
+      <c r="DV15" s="11"/>
+      <c r="DW15" s="11"/>
+      <c r="DX15" s="11"/>
+      <c r="DY15" s="11"/>
+      <c r="DZ15" s="11"/>
+      <c r="EA15" s="11"/>
+      <c r="EB15" s="11"/>
+      <c r="EC15" s="11"/>
+      <c r="ED15" s="11"/>
+      <c r="EE15" s="11"/>
+    </row>
+    <row r="16" spans="1:135" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="7"/>
+      <c r="BC16" s="7"/>
+      <c r="BD16" s="7"/>
+      <c r="BE16" s="7"/>
+      <c r="BF16" s="7"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="7"/>
+      <c r="BI16" s="7"/>
+      <c r="BJ16" s="7"/>
+      <c r="BK16" s="7"/>
+      <c r="BL16" s="7"/>
+      <c r="BM16" s="7"/>
+      <c r="BN16" s="7"/>
+      <c r="BO16" s="7"/>
+      <c r="BP16" s="7"/>
+      <c r="BQ16" s="7"/>
+      <c r="BR16" s="7"/>
+      <c r="BS16" s="7"/>
+      <c r="BT16" s="7"/>
+      <c r="BU16" s="7"/>
+      <c r="BV16" s="7"/>
+      <c r="BW16" s="7"/>
+      <c r="BX16" s="7"/>
+      <c r="BY16" s="7"/>
+      <c r="BZ16" s="7"/>
+      <c r="CA16" s="7"/>
+      <c r="CB16" s="7"/>
+      <c r="CC16" s="7"/>
+      <c r="CD16" s="7"/>
+      <c r="CE16" s="7"/>
+      <c r="CF16" s="7"/>
+      <c r="CG16" s="7"/>
+      <c r="CH16" s="7"/>
+      <c r="CI16" s="7"/>
+      <c r="CJ16" s="7"/>
+      <c r="CK16" s="7"/>
+      <c r="CL16" s="7"/>
+      <c r="CM16" s="7"/>
+      <c r="CN16" s="7"/>
+      <c r="CO16" s="7"/>
+      <c r="CP16" s="7"/>
+      <c r="CQ16" s="7"/>
+      <c r="CR16" s="7"/>
+      <c r="CS16" s="7"/>
+      <c r="CT16" s="7"/>
+      <c r="CU16" s="7"/>
+      <c r="CV16" s="7"/>
+      <c r="CW16" s="7"/>
+      <c r="CX16" s="7"/>
+      <c r="CY16" s="7"/>
+      <c r="CZ16" s="7"/>
+      <c r="DA16" s="7"/>
+      <c r="DB16" s="7"/>
+      <c r="DC16" s="7"/>
+      <c r="DD16" s="7"/>
+      <c r="DE16" s="7"/>
+      <c r="DF16" s="7"/>
+      <c r="DG16" s="7"/>
+      <c r="DH16" s="7"/>
+      <c r="DI16" s="7"/>
+      <c r="DJ16" s="7"/>
+      <c r="DK16" s="7"/>
+      <c r="DL16" s="7"/>
+      <c r="DM16" s="7"/>
+      <c r="DN16" s="7"/>
+      <c r="DO16" s="7"/>
+      <c r="DP16" s="7"/>
+      <c r="DQ16" s="7"/>
+      <c r="DR16" s="7"/>
+      <c r="DS16" s="7"/>
+      <c r="DT16" s="7"/>
+      <c r="DU16" s="7"/>
+      <c r="DV16" s="7"/>
+      <c r="DW16" s="7"/>
+      <c r="DX16" s="7"/>
+      <c r="DY16" s="7"/>
+      <c r="DZ16" s="7"/>
+      <c r="EA16" s="7"/>
+      <c r="EB16" s="7"/>
+      <c r="EC16" s="7"/>
+      <c r="ED16" s="7"/>
+      <c r="EE16" s="7"/>
+    </row>
+    <row r="17" spans="1:135" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="7"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="7"/>
+      <c r="BL17" s="7"/>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="7"/>
+      <c r="BO17" s="7"/>
+      <c r="BP17" s="7"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="7"/>
+      <c r="BS17" s="7"/>
+      <c r="BT17" s="7"/>
+      <c r="BU17" s="7"/>
+      <c r="BV17" s="7"/>
+      <c r="BW17" s="7"/>
+      <c r="BX17" s="7"/>
+      <c r="BY17" s="7"/>
+      <c r="BZ17" s="7"/>
+      <c r="CA17" s="7"/>
+      <c r="CB17" s="7"/>
+      <c r="CC17" s="7"/>
+      <c r="CD17" s="7"/>
+      <c r="CE17" s="7"/>
+      <c r="CF17" s="7"/>
+      <c r="CG17" s="7"/>
+      <c r="CH17" s="7"/>
+      <c r="CI17" s="7"/>
+      <c r="CJ17" s="7"/>
+      <c r="CK17" s="7"/>
+      <c r="CL17" s="7"/>
+      <c r="CM17" s="7"/>
+      <c r="CN17" s="7"/>
+      <c r="CO17" s="7"/>
+      <c r="CP17" s="7"/>
+      <c r="CQ17" s="7"/>
+      <c r="CR17" s="7"/>
+      <c r="CS17" s="7"/>
+      <c r="CT17" s="7"/>
+      <c r="CU17" s="7"/>
+      <c r="CV17" s="7"/>
+      <c r="CW17" s="7"/>
+      <c r="CX17" s="7"/>
+      <c r="CY17" s="7"/>
+      <c r="CZ17" s="7"/>
+      <c r="DA17" s="7"/>
+      <c r="DB17" s="7"/>
+      <c r="DC17" s="7"/>
+      <c r="DD17" s="7"/>
+      <c r="DE17" s="7"/>
+      <c r="DF17" s="7"/>
+      <c r="DG17" s="7"/>
+      <c r="DH17" s="7"/>
+      <c r="DI17" s="7"/>
+      <c r="DJ17" s="7"/>
+      <c r="DK17" s="7"/>
+      <c r="DL17" s="7"/>
+      <c r="DM17" s="7"/>
+      <c r="DN17" s="7"/>
+      <c r="DO17" s="7"/>
+      <c r="DP17" s="7"/>
+      <c r="DQ17" s="7"/>
+      <c r="DR17" s="7"/>
+      <c r="DS17" s="7"/>
+      <c r="DT17" s="7"/>
+      <c r="DU17" s="7"/>
+      <c r="DV17" s="7"/>
+      <c r="DW17" s="7"/>
+      <c r="DX17" s="7"/>
+      <c r="DY17" s="7"/>
+      <c r="DZ17" s="7"/>
+      <c r="EA17" s="7"/>
+      <c r="EB17" s="7"/>
+      <c r="EC17" s="7"/>
+      <c r="ED17" s="7"/>
+      <c r="EE17" s="7"/>
+    </row>
+    <row r="18" spans="1:135" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="7"/>
+      <c r="BD18" s="7"/>
+      <c r="BE18" s="7"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="7"/>
+      <c r="BK18" s="7"/>
+      <c r="BL18" s="7"/>
+      <c r="BM18" s="7"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
+      <c r="BR18" s="7"/>
+      <c r="BS18" s="7"/>
+      <c r="BT18" s="7"/>
+      <c r="BU18" s="7"/>
+      <c r="BV18" s="7"/>
+      <c r="BW18" s="7"/>
+      <c r="BX18" s="7"/>
+      <c r="BY18" s="7"/>
+      <c r="BZ18" s="7"/>
+      <c r="CA18" s="7"/>
+      <c r="CB18" s="7"/>
+      <c r="CC18" s="7"/>
+      <c r="CD18" s="7"/>
+      <c r="CE18" s="7"/>
+      <c r="CF18" s="7"/>
+      <c r="CG18" s="7"/>
+      <c r="CH18" s="7"/>
+      <c r="CI18" s="7"/>
+      <c r="CJ18" s="7"/>
+      <c r="CK18" s="7"/>
+      <c r="CL18" s="7"/>
+      <c r="CM18" s="7"/>
+      <c r="CN18" s="7"/>
+      <c r="CO18" s="7"/>
+      <c r="CP18" s="7"/>
+      <c r="CQ18" s="7"/>
+      <c r="CR18" s="7"/>
+      <c r="CS18" s="7"/>
+      <c r="CT18" s="7"/>
+      <c r="CU18" s="7"/>
+      <c r="CV18" s="7"/>
+      <c r="CW18" s="7"/>
+      <c r="CX18" s="7"/>
+      <c r="CY18" s="7"/>
+      <c r="CZ18" s="7"/>
+      <c r="DA18" s="7"/>
+      <c r="DB18" s="7"/>
+      <c r="DC18" s="7"/>
+      <c r="DD18" s="7"/>
+      <c r="DE18" s="7"/>
+      <c r="DF18" s="7"/>
+      <c r="DG18" s="7"/>
+      <c r="DH18" s="7"/>
+      <c r="DI18" s="7"/>
+      <c r="DJ18" s="7"/>
+      <c r="DK18" s="7"/>
+      <c r="DL18" s="7"/>
+      <c r="DM18" s="7"/>
+      <c r="DN18" s="7"/>
+      <c r="DO18" s="7"/>
+      <c r="DP18" s="7"/>
+      <c r="DQ18" s="7"/>
+      <c r="DR18" s="7"/>
+      <c r="DS18" s="7"/>
+      <c r="DT18" s="7"/>
+      <c r="DU18" s="7"/>
+      <c r="DV18" s="7"/>
+      <c r="DW18" s="7"/>
+      <c r="DX18" s="7"/>
+      <c r="DY18" s="7"/>
+      <c r="DZ18" s="7"/>
+      <c r="EA18" s="7"/>
+      <c r="EB18" s="7"/>
+      <c r="EC18" s="7"/>
+      <c r="ED18" s="7"/>
+      <c r="EE18" s="7"/>
+    </row>
+    <row r="19" spans="1:135" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="7"/>
+      <c r="BK19" s="7"/>
+      <c r="BL19" s="7"/>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
+      <c r="BU19" s="7"/>
+      <c r="BV19" s="7"/>
+      <c r="BW19" s="7"/>
+      <c r="BX19" s="7"/>
+      <c r="BY19" s="7"/>
+      <c r="BZ19" s="7"/>
+      <c r="CA19" s="7"/>
+      <c r="CB19" s="7"/>
+      <c r="CC19" s="7"/>
+      <c r="CD19" s="7"/>
+      <c r="CE19" s="7"/>
+      <c r="CF19" s="7"/>
+      <c r="CG19" s="7"/>
+      <c r="CH19" s="7"/>
+      <c r="CI19" s="7"/>
+      <c r="CJ19" s="7"/>
+      <c r="CK19" s="7"/>
+      <c r="CL19" s="7"/>
+      <c r="CM19" s="7"/>
+      <c r="CN19" s="7"/>
+      <c r="CO19" s="7"/>
+      <c r="CP19" s="7"/>
+      <c r="CQ19" s="7"/>
+      <c r="CR19" s="7"/>
+      <c r="CS19" s="7"/>
+      <c r="CT19" s="7"/>
+      <c r="CU19" s="7"/>
+      <c r="CV19" s="7"/>
+      <c r="CW19" s="7"/>
+      <c r="CX19" s="7"/>
+      <c r="CY19" s="7"/>
+      <c r="CZ19" s="7"/>
+      <c r="DA19" s="7"/>
+      <c r="DB19" s="7"/>
+      <c r="DC19" s="7"/>
+      <c r="DD19" s="7"/>
+      <c r="DE19" s="7"/>
+      <c r="DF19" s="7"/>
+      <c r="DG19" s="7"/>
+      <c r="DH19" s="7"/>
+      <c r="DI19" s="7"/>
+      <c r="DJ19" s="7"/>
+      <c r="DK19" s="7"/>
+      <c r="DL19" s="7"/>
+      <c r="DM19" s="7"/>
+      <c r="DN19" s="7"/>
+      <c r="DO19" s="7"/>
+      <c r="DP19" s="7"/>
+      <c r="DQ19" s="7"/>
+      <c r="DR19" s="7"/>
+      <c r="DS19" s="7"/>
+      <c r="DT19" s="7"/>
+      <c r="DU19" s="7"/>
+      <c r="DV19" s="7"/>
+      <c r="DW19" s="7"/>
+      <c r="DX19" s="7"/>
+      <c r="DY19" s="7"/>
+      <c r="DZ19" s="7"/>
+      <c r="EA19" s="7"/>
+      <c r="EB19" s="7"/>
+      <c r="EC19" s="7"/>
+      <c r="ED19" s="7"/>
+      <c r="EE19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
